--- a/forms/app/pqhpt.xlsx
+++ b/forms/app/pqhpt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="1127">
   <si>
     <t>type</t>
   </si>
@@ -7304,7 +7304,9 @@
         <v>85</v>
       </c>
       <c r="K69" s="39"/>
-      <c r="L69" s="34"/>
+      <c r="L69" s="42" t="s">
+        <v>86</v>
+      </c>
       <c r="M69" s="37"/>
       <c r="N69" s="34"/>
       <c r="O69" s="38"/>
@@ -37485,7 +37487,7 @@
       </c>
       <c r="C2" s="98">
         <f>NOW()</f>
-        <v>45031.16971</v>
+        <v>45031.17362</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>1031</v>
